--- a/data/trans_bre/P19_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>-14,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>406,92%</t>
+          <t>-6,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>123,62%</t>
+          <t>-2,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-32,2%</t>
+          <t>-5,93%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-14,17%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 9,01</t>
+          <t>-17,58; 3,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 13,73</t>
+          <t>-10,36; 6,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 8,91</t>
+          <t>-15,74; 1,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 3,53</t>
+          <t>-8,86; 11,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,81; 464,38</t>
+          <t>-28,37; -5,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,31; —</t>
+          <t>-18,21; 4,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-67,86; 964,95</t>
+          <t>-10,5; 6,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-83,02; 141,76</t>
+          <t>-16,41; 1,89</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,16; 13,91</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-28,37; -5,4</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>191,84%</t>
+          <t>-7,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>-5,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>103,42%</t>
+          <t>-2,88%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-3,68%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 11,45</t>
+          <t>-12,96; -1,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 10,12</t>
+          <t>-11,49; -0,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 6,58</t>
+          <t>-8,51; 2,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 8,37</t>
+          <t>-9,48; 2,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 246,27</t>
+          <t>-4,23; 8,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,38; 683,34</t>
+          <t>-13,41; -1,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 381,85</t>
+          <t>-11,76; -0,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 343,59</t>
+          <t>-8,82; 2,85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-9,9; 2,44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 9,94</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>158,36%</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>72,29%</t>
+          <t>-4,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>-2,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>-2,3%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,93%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,4%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 12,1</t>
+          <t>-11,09; 2,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,16</t>
+          <t>-6,74; 2,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 6,76</t>
+          <t>-7,55; 4,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,81</t>
+          <t>-8,36; 3,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 526,08</t>
+          <t>-7,71; 5,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 422,25</t>
+          <t>-11,74; 2,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,07; 314,16</t>
+          <t>-7,0; 2,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 348,71</t>
+          <t>-7,79; 4,72</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 3,99</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; 6,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>166,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,1; 203,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,67; 394,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 206,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 179,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-5,89</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,7</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-6,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,85%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-9,83; -1,65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; -0,33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 0,74</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 1,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 2,16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-10,21; -1,86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,63; -0,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 0,8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 1,11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 2,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P19_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,5</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,73</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-14,17</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-6,8%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,46%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-5,93%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-14,17%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-6.500960698204694</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.575991379224118</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.052569533397422</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.8001735337703653</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-16.31285340763269</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.06797953572589213</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.02675195563734195</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.06256741039545954</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.008611857018388083</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.1631285340763269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,58; 3,95</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,36; 6,39</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,74; 1,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-8,86; 11,66</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-28,37; -5,4</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-18,21; 4,07</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-10,5; 6,99</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-16,41; 1,89</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-9,16; 13,91</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-28,37; -5,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-17.57506779090551</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.18533234017606</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-16.22969510628634</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-8.34669258856788</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-33.24718767404045</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1821245409650839</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1046748668824266</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1690119095114997</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.0860546005029756</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3324718767404045</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.95336045523924</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.178416000365077</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.710778655258943</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.40108122436746</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-6.100385708217992</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.04067632518441825</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.06703096627371091</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.01703749894439223</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1370791650765608</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.06100385708217992</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,6</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,73</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,47</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-7,12%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-5,86%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-2,88%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-3,68%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,96; -1,28</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,49; -0,35</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; 2,65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,48; 2,21</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 8,55</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-13,41; -1,38</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-11,76; -0,41</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-8,82; 2,85</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-9,9; 2,44</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; 9,94</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-6.803070768086927</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-7.073157027548138</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.140836533270475</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.573320462064178</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.367573066975125</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.07116665949802312</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.07393510974372576</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.03316134755636623</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.03809636953224403</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.01489635358912921</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,21</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,78</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-4,82%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-2,28%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-2,3%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-2,93%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.96326648563551</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.51131759880013</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.321417446695021</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.77563567085511</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.810352825133169</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1340837111994265</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1501726187602876</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.09527269034985517</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1015590006661591</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.04953231925736617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 2,17</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,74; 2,48</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,55; 4,26</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,36; 3,72</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-7,71; 5,72</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-11,74; 2,1</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-7,0; 2,55</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-7,79; 4,72</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-8,54; 3,99</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-8,09; 6,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-1.27681041369552</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-1.395396390116071</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.226267598086476</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.53180337835404</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.04812142786537</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.01382015923711469</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.01634863385955164</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.02437090497650212</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.02721865635751875</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.09525531073039632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.507084036950715</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.206925692075477</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.9192539553395052</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.21952477723214</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.8629903830023267</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.04824735773029609</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.002170632777593834</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.009821125185268913</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.02350356446203489</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.009399786852204854</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.09448916642868</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.044254758746301</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.759813574246063</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.812551776785161</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-7.27367435694088</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.117449897388935</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.05128416652809982</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.06952919426830072</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.08087969808733556</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.07604899654854559</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.165635128329324</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.539416450153574</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.402798319421512</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.585365243164986</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>6.374351177452345</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.02098824878218413</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1111482737087713</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.08400617113975592</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.0498390558712731</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.07266621651582304</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,89</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,7</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,92</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,6</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-6,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-3,85%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-3,08%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-2,76%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-2,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,83; -1,65</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; -0,33</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,66; 0,74</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,08; 1,07</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 2,16</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-10,21; -1,86</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; -0,35</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 0,8</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 1,11</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 2,36</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-5.888537814544947</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.683325624183664</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.680482966495779</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.371218627844451</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-2.593128077365348</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.06213215781726486</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.0385193544465032</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.02834393560600931</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.02525328854062018</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.0278357311492316</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.825408643483108</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.946442278446582</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.714769760612681</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.904653694645334</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-7.355174441215564</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1020662517803429</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08142343561507243</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.06932991242727193</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.06259600449775334</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.07813830514408485</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-1.648693374370498</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5961269714567161</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.257449553007305</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.474613653992772</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.224881509729587</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.01856230555883402</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.006325704169712856</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.01360022736228379</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.01586814757661753</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.02459106072456224</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
